--- a/13_node_BCSS.xlsx
+++ b/13_node_BCSS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\未完成论文\TSG_Hybrid Swapped Battery Charging and Logistics Dispatch Model in Continuous Time Domain\电动汽车数据\BCSS数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\未完成论文\TVT_Hybrid Swapped Battery Charging and Logistics Dispatch Model in Continuous Time Domain\电动汽车数据\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF19E37-47E3-49A9-A75D-EA0651C5E8EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEB1B40-E653-418D-9E9D-FB7C44920C0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{B6A59798-8AE2-4BDA-93E5-78F29E1A7A64}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>[6:00, 7:30]</t>
   </si>
@@ -85,6 +85,14 @@
   </si>
   <si>
     <t>Maximum Power (kW)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -204,13 +212,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -220,18 +239,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -244,10 +278,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -564,378 +601,429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD18437C-BBB6-4AB5-9CC3-7B211E5DDE0B}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:F20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="5" width="7.25" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>7</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="12">
         <v>0.16200000000000001</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="13"/>
+      <c r="F4" s="2">
         <v>0.125</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="8">
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>27</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="12">
         <v>0.156</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="13"/>
+      <c r="F5" s="2">
         <v>0.12</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="5"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="11"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>1</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>5</v>
       </c>
       <c r="D10" s="6">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6">
+        <v>7</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4</v>
+      </c>
+      <c r="F12" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4">
+        <v>14</v>
+      </c>
+      <c r="D13" s="6">
+        <v>6</v>
+      </c>
+      <c r="E13" s="6">
+        <v>6</v>
+      </c>
+      <c r="F13" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6">
         <v>8</v>
       </c>
-      <c r="E10" s="6">
-        <v>6.4</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E16" s="6">
+        <v>4</v>
+      </c>
+      <c r="F16" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4</v>
+      </c>
+      <c r="F17" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>5</v>
+      </c>
+      <c r="F18" s="6">
+        <v>7</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4">
+        <v>14</v>
+      </c>
+      <c r="D19" s="6">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4">
+        <v>20</v>
+      </c>
+      <c r="C20" s="4">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6">
+        <v>6</v>
+      </c>
+      <c r="F20" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="6">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6">
-        <v>16</v>
-      </c>
-      <c r="D11" s="6">
-        <v>9</v>
-      </c>
-      <c r="E11" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>3</v>
-      </c>
-      <c r="B12" s="6">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6">
-        <v>4</v>
-      </c>
-      <c r="D12" s="6">
-        <v>12</v>
-      </c>
-      <c r="E12" s="6">
-        <v>9.6</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>4</v>
-      </c>
-      <c r="B13" s="6">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6">
-        <v>14</v>
-      </c>
-      <c r="D13" s="6">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6">
-        <v>8</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>5</v>
-      </c>
-      <c r="B14" s="6">
-        <v>10</v>
-      </c>
-      <c r="C14" s="6">
-        <v>17</v>
-      </c>
-      <c r="D14" s="6">
-        <v>12</v>
-      </c>
-      <c r="E14" s="6">
-        <v>9.6</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>6</v>
-      </c>
-      <c r="B15" s="6">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6">
-        <v>9</v>
-      </c>
-      <c r="D15" s="6">
-        <v>12</v>
-      </c>
-      <c r="E15" s="6">
-        <v>9.6</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>7</v>
-      </c>
-      <c r="B16" s="6">
-        <v>17</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3</v>
-      </c>
-      <c r="D16" s="6">
-        <v>10</v>
-      </c>
-      <c r="E16" s="6">
-        <v>8</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>8</v>
-      </c>
-      <c r="B17" s="6">
-        <v>19</v>
-      </c>
-      <c r="C17" s="6">
-        <v>16</v>
-      </c>
-      <c r="D17" s="6">
-        <v>11</v>
-      </c>
-      <c r="E17" s="6">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>9</v>
-      </c>
-      <c r="B18" s="6">
-        <v>24</v>
-      </c>
-      <c r="C18" s="6">
-        <v>3</v>
-      </c>
-      <c r="D18" s="6">
-        <v>8</v>
-      </c>
-      <c r="E18" s="6">
-        <v>6.4</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>10</v>
-      </c>
-      <c r="B19" s="6">
-        <v>24</v>
-      </c>
-      <c r="C19" s="6">
-        <v>14</v>
-      </c>
-      <c r="D19" s="6">
-        <v>10</v>
-      </c>
-      <c r="E19" s="6">
-        <v>8</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>11</v>
-      </c>
-      <c r="B20" s="6">
-        <v>20</v>
-      </c>
-      <c r="C20" s="6">
-        <v>7</v>
-      </c>
-      <c r="D20" s="6">
-        <v>12</v>
-      </c>
-      <c r="E20" s="6">
-        <v>9.6</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="15">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
